--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R0b887a7d3a3444f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R8ac7c98c69b941b9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -41,52 +41,52 @@
   <x:sheetData>
     <x:row r="1">
       <x:c r="B1" t="n">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
       <x:c r="B2" t="n">
-        <x:v>53</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="B3" t="n">
-        <x:v>91</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="B4" t="n">
-        <x:v>97</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="B5" t="n">
-        <x:v>82</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="B6" t="n">
-        <x:v>2</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="B7" t="n">
-        <x:v>94</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="B8" t="n">
-        <x:v>86</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="B9" t="n">
-        <x:v>57</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="B10" t="n">
-        <x:v>29</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="11">

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R8ac7c98c69b941b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5f1101b2f6be47bf"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -41,52 +41,52 @@
   <x:sheetData>
     <x:row r="1">
       <x:c r="B1" t="n">
-        <x:v>95</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
       <x:c r="B2" t="n">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="B3" t="n">
-        <x:v>9</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="B4" t="n">
-        <x:v>86</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="B5" t="n">
-        <x:v>41</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="B6" t="n">
-        <x:v>66</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="B7" t="n">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="B8" t="n">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="B9" t="n">
-        <x:v>69</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="B10" t="n">
-        <x:v>40</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="11">

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5f1101b2f6be47bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R845935ed44114784"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -41,32 +41,32 @@
   <x:sheetData>
     <x:row r="1">
       <x:c r="B1" t="n">
-        <x:v>30</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
       <x:c r="B2" t="n">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="B3" t="n">
-        <x:v>67</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="B4" t="n">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="B5" t="n">
-        <x:v>54</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="B6" t="n">
-        <x:v>2</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -76,17 +76,17 @@
     </x:row>
     <x:row r="8">
       <x:c r="B8" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="B9" t="n">
-        <x:v>88</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="B10" t="n">
-        <x:v>86</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="11">

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R845935ed44114784"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rdc8065ab73c54523"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -41,12 +41,12 @@
   <x:sheetData>
     <x:row r="1">
       <x:c r="B1" t="n">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
       <x:c r="B2" t="n">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -56,27 +56,27 @@
     </x:row>
     <x:row r="4">
       <x:c r="B4" t="n">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="B5" t="n">
-        <x:v>51</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="B6" t="n">
-        <x:v>74</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="B7" t="n">
-        <x:v>62</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="B8" t="n">
-        <x:v>20</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -86,7 +86,7 @@
     </x:row>
     <x:row r="10">
       <x:c r="B10" t="n">
-        <x:v>78</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="11">

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rdc8065ab73c54523"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rabb430fc4dbf454d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -41,52 +41,52 @@
   <x:sheetData>
     <x:row r="1">
       <x:c r="B1" t="n">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
       <x:c r="B2" t="n">
-        <x:v>35</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="B3" t="n">
-        <x:v>9</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="B4" t="n">
-        <x:v>25</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="B5" t="n">
-        <x:v>87</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="B6" t="n">
-        <x:v>45</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="B7" t="n">
-        <x:v>12</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="B8" t="n">
-        <x:v>89</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="B9" t="n">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="B10" t="n">
-        <x:v>90</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
